--- a/Musings Mail.xlsx
+++ b/Musings Mail.xlsx
@@ -5,96 +5,91 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="963" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
-    <t xml:space="preserve">Tot Linkedin</t>
+    <t>Tot Linkedin</t>
   </si>
   <si>
-    <t xml:space="preserve">Respond</t>
+    <t>Respond</t>
   </si>
   <si>
-    <t xml:space="preserve">Tot Correct</t>
+    <t>Tot Correct</t>
   </si>
   <si>
-    <t xml:space="preserve">Positive</t>
+    <t>Positive</t>
   </si>
   <si>
-    <t xml:space="preserve">Close</t>
+    <t>Close</t>
   </si>
   <si>
-    <t xml:space="preserve">/day</t>
+    <t>/day</t>
   </si>
   <si>
-    <t xml:space="preserve">/month(24)</t>
+    <t>/month(24)</t>
   </si>
   <si>
-    <t xml:space="preserve">remain</t>
+    <t>remain</t>
   </si>
   <si>
-    <t xml:space="preserve">NL High</t>
+    <t>NL High</t>
   </si>
   <si>
-    <t xml:space="preserve">RUN</t>
+    <t>RUN</t>
   </si>
   <si>
-    <t xml:space="preserve">A~$</t>
+    <t>A~$</t>
   </si>
   <si>
-    <t xml:space="preserve">NL Low</t>
+    <t>NL Low</t>
   </si>
   <si>
-    <t xml:space="preserve">AD</t>
+    <t>AD</t>
   </si>
   <si>
-    <t xml:space="preserve">AD$</t>
+    <t>AD$</t>
   </si>
   <si>
-    <t xml:space="preserve">ME$</t>
+    <t>ME$</t>
   </si>
   <si>
-    <t xml:space="preserve">March (25-55)</t>
+    <t>March (25-55)</t>
   </si>
   <si>
-    <t xml:space="preserve">April (70-115)</t>
+    <t>April (70-115)</t>
   </si>
   <si>
-    <t xml:space="preserve">May (135-205)</t>
+    <t>May (135-205)</t>
   </si>
   <si>
-    <t xml:space="preserve">June (230 -250)</t>
+    <t>June (230 -250)</t>
   </si>
   <si>
-    <t xml:space="preserve">July (250)</t>
+    <t>July (250)</t>
   </si>
   <si>
-    <t xml:space="preserve">August</t>
+    <t>August</t>
   </si>
   <si>
-    <t xml:space="preserve">September</t>
+    <t>September</t>
   </si>
   <si>
-    <t xml:space="preserve">October</t>
+    <t>October</t>
   </si>
   <si>
-    <t xml:space="preserve">November</t>
+    <t>November</t>
   </si>
   <si>
-    <t xml:space="preserve">December</t>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -102,12 +97,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="0%"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -229,11 +224,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,19 +240,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,6 +254,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -277,11 +272,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,11 +288,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,7 +300,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,7 +384,7 @@
   <dimension ref="1:24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V23" activeCellId="0" sqref="V23"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -406,15 +401,15 @@
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="3" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0"/>
@@ -423,13 +418,13 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="n">
+      <c r="G1" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
@@ -1446,7 +1441,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="n">
@@ -1457,13 +1452,13 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
@@ -2480,20 +2475,20 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
@@ -3510,19 +3505,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="6" t="n">
         <f aca="false">G1*G2*G3</f>
         <v>0.016</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -4539,7 +4534,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="0"/>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
@@ -5565,7 +5560,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
@@ -6591,20 +6586,20 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="0"/>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="G7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
@@ -7621,20 +7616,20 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
@@ -8651,20 +8646,20 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="G9" s="5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
@@ -9681,22 +9676,22 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="7" t="n">
         <f aca="false">G7*G8*G9</f>
-        <v>0.0072</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+        <v>0.018</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="2" t="n">
         <f aca="false">SUM(L14:L17)</f>
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
@@ -10713,7 +10708,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
@@ -10725,9 +10720,9 @@
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
-      <c r="N11" s="9" t="n">
+      <c r="N11" s="8" t="n">
         <f aca="false">1/N12</f>
-        <v>0.024</v>
+        <v>0.0266666666666667</v>
       </c>
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
@@ -11753,18 +11748,18 @@
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
-      <c r="M12" s="10" t="n">
-        <v>250</v>
+      <c r="M12" s="9" t="n">
+        <v>225</v>
       </c>
       <c r="N12" s="2" t="n">
         <f aca="false">M12/6</f>
-        <v>41.6666666666667</v>
+        <v>37.5</v>
       </c>
       <c r="O12" s="0"/>
-      <c r="P12" s="9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q12" s="9" t="n">
+      <c r="P12" s="8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="8" t="n">
         <v>0.15</v>
       </c>
       <c r="R12" s="0"/>
@@ -12778,41 +12773,41 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
       <c r="B13" s="0"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="0"/>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11" t="s">
+      <c r="O13" s="10"/>
+      <c r="P13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="R13" s="0"/>
@@ -13850,51 +13845,51 @@
         <f aca="false">G14</f>
         <v>15</v>
       </c>
-      <c r="I14" s="12" t="n">
+      <c r="I14" s="11" t="n">
         <f aca="false">ROUND(H14*225*0.5,2)</f>
         <v>1687.5</v>
       </c>
-      <c r="J14" s="12" t="n">
+      <c r="J14" s="11" t="n">
         <f aca="false">I14</f>
         <v>1687.5</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="2" t="n">
         <f aca="false">ROUND(D14*$G$10,0)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="2" t="n">
         <f aca="false">L14+M14</f>
-        <v>7</v>
-      </c>
-      <c r="O14" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O14" s="12" t="n">
         <f aca="false">225*N14</f>
-        <v>1575</v>
-      </c>
-      <c r="P14" s="3" t="n">
+        <v>3825</v>
+      </c>
+      <c r="P14" s="12" t="n">
         <f aca="false">O14*$P$12</f>
-        <v>393.75</v>
-      </c>
-      <c r="Q14" s="3" t="n">
+        <v>765</v>
+      </c>
+      <c r="Q14" s="12" t="n">
         <f aca="false">O14*$Q$12</f>
-        <v>236.25</v>
-      </c>
-      <c r="R14" s="12" t="n">
+        <v>573.75</v>
+      </c>
+      <c r="R14" s="11" t="n">
         <f aca="false">Q14</f>
-        <v>236.25</v>
+        <v>573.75</v>
       </c>
       <c r="S14" s="0"/>
-      <c r="T14" s="3" t="n">
+      <c r="T14" s="12" t="n">
         <f aca="false">O14*12</f>
-        <v>18900</v>
+        <v>45900</v>
       </c>
       <c r="U14" s="0"/>
-      <c r="V14" s="3" t="n">
+      <c r="V14" s="12" t="n">
         <f aca="false">Q14*12</f>
-        <v>2835</v>
+        <v>6885</v>
       </c>
       <c r="W14" s="0"/>
       <c r="X14" s="0"/>
@@ -14926,52 +14921,52 @@
         <f aca="false">H14+G15</f>
         <v>51</v>
       </c>
-      <c r="I15" s="12" t="n">
+      <c r="I15" s="11" t="n">
         <f aca="false">ROUND(H15*225*0.5,2)</f>
         <v>5737.5</v>
       </c>
-      <c r="J15" s="12" t="n">
+      <c r="J15" s="11" t="n">
         <f aca="false">J14+I15</f>
         <v>7425</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="2" t="n">
         <f aca="false">ROUND(D15*$G$10,0)</f>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M15" s="2" t="n">
         <f aca="false">ROUND(P14/$M$12,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="2" t="n">
         <f aca="false">L15+M15+N14</f>
-        <v>25</v>
-      </c>
-      <c r="O15" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="O15" s="12" t="n">
         <f aca="false">225*N15</f>
-        <v>5625</v>
-      </c>
-      <c r="P15" s="3" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P15" s="12" t="n">
         <f aca="false">O15*$P$12</f>
-        <v>1406.25</v>
-      </c>
-      <c r="Q15" s="3" t="n">
+        <v>2700</v>
+      </c>
+      <c r="Q15" s="12" t="n">
         <f aca="false">O15*$Q$12</f>
-        <v>843.75</v>
-      </c>
-      <c r="R15" s="12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="R15" s="11" t="n">
         <f aca="false">R14+Q15</f>
-        <v>1080</v>
+        <v>2598.75</v>
       </c>
       <c r="S15" s="0"/>
-      <c r="T15" s="3" t="n">
+      <c r="T15" s="12" t="n">
         <f aca="false">O15*12</f>
-        <v>67500</v>
+        <v>162000</v>
       </c>
       <c r="U15" s="0"/>
-      <c r="V15" s="3" t="n">
+      <c r="V15" s="12" t="n">
         <f aca="false">Q15*12</f>
-        <v>10125</v>
+        <v>24300</v>
       </c>
       <c r="W15" s="0"/>
       <c r="X15" s="0"/>
@@ -16003,52 +15998,52 @@
         <f aca="false">H15+G16</f>
         <v>109</v>
       </c>
-      <c r="I16" s="12" t="n">
+      <c r="I16" s="11" t="n">
         <f aca="false">ROUND(H16*225*0.5,2)</f>
         <v>12262.5</v>
       </c>
-      <c r="J16" s="12" t="n">
+      <c r="J16" s="11" t="n">
         <f aca="false">J15+I16</f>
         <v>19687.5</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="2" t="n">
         <f aca="false">ROUND(D16*$G$10,0)</f>
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="M16" s="2" t="n">
         <f aca="false">ROUND(P15/$M$12,0)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N16" s="2" t="n">
         <f aca="false">L16+M16+N15</f>
-        <v>57</v>
-      </c>
-      <c r="O16" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="O16" s="12" t="n">
         <f aca="false">225*N16</f>
-        <v>12825</v>
-      </c>
-      <c r="P16" s="3" t="n">
+        <v>30825</v>
+      </c>
+      <c r="P16" s="12" t="n">
         <f aca="false">O16*$P$12</f>
-        <v>3206.25</v>
-      </c>
-      <c r="Q16" s="3" t="n">
+        <v>6165</v>
+      </c>
+      <c r="Q16" s="12" t="n">
         <f aca="false">O16*$Q$12</f>
-        <v>1923.75</v>
-      </c>
-      <c r="R16" s="12" t="n">
+        <v>4623.75</v>
+      </c>
+      <c r="R16" s="11" t="n">
         <f aca="false">R15+Q16</f>
-        <v>3003.75</v>
+        <v>7222.5</v>
       </c>
       <c r="S16" s="0"/>
-      <c r="T16" s="3" t="n">
+      <c r="T16" s="12" t="n">
         <f aca="false">O16*12</f>
-        <v>153900</v>
+        <v>369900</v>
       </c>
       <c r="U16" s="0"/>
-      <c r="V16" s="3" t="n">
+      <c r="V16" s="12" t="n">
         <f aca="false">Q16*12</f>
-        <v>23085</v>
+        <v>55485</v>
       </c>
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
@@ -17080,52 +17075,52 @@
         <f aca="false">H16+G17</f>
         <v>205</v>
       </c>
-      <c r="I17" s="12" t="n">
+      <c r="I17" s="11" t="n">
         <f aca="false">ROUND(H17*225*0.2,2)</f>
         <v>9225</v>
       </c>
-      <c r="J17" s="12" t="n">
+      <c r="J17" s="11" t="n">
         <f aca="false">J16+I17</f>
         <v>28912.5</v>
       </c>
-      <c r="K17" s="12"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="2" t="n">
         <f aca="false">ROUND(D17*$G$10,0)</f>
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="M17" s="2" t="n">
         <f aca="false">ROUND(P16/$M$12,0)</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N17" s="2" t="n">
         <f aca="false">L17+M17+N16</f>
-        <v>113</v>
-      </c>
-      <c r="O17" s="3" t="n">
+        <v>272</v>
+      </c>
+      <c r="O17" s="12" t="n">
         <f aca="false">225*N17</f>
-        <v>25425</v>
-      </c>
-      <c r="P17" s="3" t="n">
+        <v>61200</v>
+      </c>
+      <c r="P17" s="12" t="n">
         <f aca="false">O17*$P$12</f>
-        <v>6356.25</v>
-      </c>
-      <c r="Q17" s="3" t="n">
+        <v>12240</v>
+      </c>
+      <c r="Q17" s="12" t="n">
         <f aca="false">O17*$Q$12</f>
-        <v>3813.75</v>
-      </c>
-      <c r="R17" s="12" t="n">
+        <v>9180</v>
+      </c>
+      <c r="R17" s="11" t="n">
         <f aca="false">R16+Q17</f>
-        <v>6817.5</v>
+        <v>16402.5</v>
       </c>
       <c r="S17" s="0"/>
-      <c r="T17" s="3" t="n">
+      <c r="T17" s="12" t="n">
         <f aca="false">O17*12</f>
-        <v>305100</v>
+        <v>734400</v>
       </c>
       <c r="U17" s="0"/>
-      <c r="V17" s="3" t="n">
+      <c r="V17" s="12" t="n">
         <f aca="false">Q17*12</f>
-        <v>45765</v>
+        <v>110160</v>
       </c>
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
@@ -18157,52 +18152,52 @@
         <f aca="false">H17+G18</f>
         <v>301</v>
       </c>
-      <c r="I18" s="12" t="n">
+      <c r="I18" s="11" t="n">
         <f aca="false">ROUND(H18*225*0.2,2)</f>
         <v>13545</v>
       </c>
-      <c r="J18" s="12" t="n">
+      <c r="J18" s="11" t="n">
         <f aca="false">J17+I18</f>
         <v>42457.5</v>
       </c>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="2" t="n">
         <f aca="false">ROUND(D18*$G$10,0)</f>
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="M18" s="2" t="n">
         <f aca="false">ROUND(P17/$M$12,0)</f>
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="N18" s="2" t="n">
         <f aca="false">L18+M18+N17</f>
-        <v>181</v>
-      </c>
-      <c r="O18" s="3" t="n">
+        <v>434</v>
+      </c>
+      <c r="O18" s="12" t="n">
         <f aca="false">225*N18</f>
-        <v>40725</v>
-      </c>
-      <c r="P18" s="3" t="n">
+        <v>97650</v>
+      </c>
+      <c r="P18" s="12" t="n">
         <f aca="false">O18*$P$12</f>
-        <v>10181.25</v>
-      </c>
-      <c r="Q18" s="3" t="n">
+        <v>19530</v>
+      </c>
+      <c r="Q18" s="12" t="n">
         <f aca="false">O18*$Q$12</f>
-        <v>6108.75</v>
-      </c>
-      <c r="R18" s="12" t="n">
+        <v>14647.5</v>
+      </c>
+      <c r="R18" s="11" t="n">
         <f aca="false">R17+Q18</f>
-        <v>12926.25</v>
+        <v>31050</v>
       </c>
       <c r="S18" s="0"/>
-      <c r="T18" s="3" t="n">
+      <c r="T18" s="12" t="n">
         <f aca="false">O18*12</f>
-        <v>488700</v>
+        <v>1171800</v>
       </c>
       <c r="U18" s="0"/>
-      <c r="V18" s="3" t="n">
+      <c r="V18" s="12" t="n">
         <f aca="false">Q18*12</f>
-        <v>73305</v>
+        <v>175770</v>
       </c>
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
@@ -19244,39 +19239,39 @@
       <c r="K19" s="15"/>
       <c r="L19" s="14" t="n">
         <f aca="false">ROUND(D19*$G$10,0)</f>
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="M19" s="14" t="n">
         <f aca="false">ROUND(P18/$M$12,0)</f>
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="N19" s="14" t="n">
         <f aca="false">L19+M19+N18</f>
-        <v>265</v>
+        <v>629</v>
       </c>
       <c r="O19" s="16" t="n">
         <f aca="false">225*N19</f>
-        <v>59625</v>
+        <v>141525</v>
       </c>
       <c r="P19" s="16" t="n">
         <f aca="false">O19*$P$12</f>
-        <v>14906.25</v>
+        <v>28305</v>
       </c>
       <c r="Q19" s="16" t="n">
         <f aca="false">O19*$Q$12</f>
-        <v>8943.75</v>
+        <v>21228.75</v>
       </c>
       <c r="R19" s="15" t="n">
         <f aca="false">R18+Q19</f>
-        <v>21870</v>
+        <v>52278.75</v>
       </c>
       <c r="T19" s="16" t="n">
         <f aca="false">O19*12</f>
-        <v>715500</v>
+        <v>1698300</v>
       </c>
       <c r="V19" s="16" t="n">
         <f aca="false">Q19*12</f>
-        <v>107325</v>
+        <v>254745</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19306,52 +19301,52 @@
         <f aca="false">H19+G20</f>
         <v>397</v>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="I20" s="11" t="n">
         <f aca="false">ROUND(H20*225*0.2,2)</f>
         <v>17865</v>
       </c>
-      <c r="J20" s="12" t="n">
+      <c r="J20" s="11" t="n">
         <f aca="false">J19+I20</f>
         <v>78187.5</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="2" t="n">
         <f aca="false">ROUND(D20*$G$10,0)</f>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="n">
         <f aca="false">ROUND(P19/$M$12,0)</f>
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="N20" s="2" t="n">
         <f aca="false">L20+M20+N19</f>
-        <v>325</v>
-      </c>
-      <c r="O20" s="3" t="n">
+        <v>755</v>
+      </c>
+      <c r="O20" s="12" t="n">
         <f aca="false">225*N20</f>
-        <v>73125</v>
-      </c>
-      <c r="P20" s="3" t="n">
+        <v>169875</v>
+      </c>
+      <c r="P20" s="12" t="n">
         <f aca="false">O20*$P$12</f>
-        <v>18281.25</v>
-      </c>
-      <c r="Q20" s="3" t="n">
+        <v>33975</v>
+      </c>
+      <c r="Q20" s="12" t="n">
         <f aca="false">O20*$Q$12</f>
-        <v>10968.75</v>
-      </c>
-      <c r="R20" s="12" t="n">
+        <v>25481.25</v>
+      </c>
+      <c r="R20" s="11" t="n">
         <f aca="false">R19+Q20</f>
-        <v>32838.75</v>
+        <v>77760</v>
       </c>
       <c r="S20" s="0"/>
-      <c r="T20" s="3" t="n">
+      <c r="T20" s="12" t="n">
         <f aca="false">O20*12</f>
-        <v>877500</v>
+        <v>2038500</v>
       </c>
       <c r="U20" s="0"/>
-      <c r="V20" s="3" t="n">
+      <c r="V20" s="12" t="n">
         <f aca="false">Q20*12</f>
-        <v>131625</v>
+        <v>305775</v>
       </c>
       <c r="W20" s="0"/>
       <c r="X20" s="0"/>
@@ -20383,52 +20378,52 @@
         <f aca="false">H20+G21</f>
         <v>397</v>
       </c>
-      <c r="I21" s="12" t="n">
+      <c r="I21" s="11" t="n">
         <f aca="false">ROUND(H21*225*0.2,2)</f>
         <v>17865</v>
       </c>
-      <c r="J21" s="12" t="n">
+      <c r="J21" s="11" t="n">
         <f aca="false">J20+I21</f>
         <v>96052.5</v>
       </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="2" t="n">
         <f aca="false">ROUND(D21*$G$10,0)</f>
         <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
         <f aca="false">ROUND(P20/$M$12,0)</f>
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="N21" s="2" t="n">
         <f aca="false">L21+M21+N20</f>
-        <v>398</v>
-      </c>
-      <c r="O21" s="3" t="n">
+        <v>906</v>
+      </c>
+      <c r="O21" s="12" t="n">
         <f aca="false">225*N21</f>
-        <v>89550</v>
-      </c>
-      <c r="P21" s="3" t="n">
+        <v>203850</v>
+      </c>
+      <c r="P21" s="12" t="n">
         <f aca="false">O21*$P$12</f>
-        <v>22387.5</v>
-      </c>
-      <c r="Q21" s="3" t="n">
+        <v>40770</v>
+      </c>
+      <c r="Q21" s="12" t="n">
         <f aca="false">O21*$Q$12</f>
-        <v>13432.5</v>
-      </c>
-      <c r="R21" s="12" t="n">
+        <v>30577.5</v>
+      </c>
+      <c r="R21" s="11" t="n">
         <f aca="false">R20+Q21</f>
-        <v>46271.25</v>
+        <v>108337.5</v>
       </c>
       <c r="S21" s="0"/>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="12" t="n">
         <f aca="false">O21*12</f>
-        <v>1074600</v>
+        <v>2446200</v>
       </c>
       <c r="U21" s="0"/>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="12" t="n">
         <f aca="false">Q21*12</f>
-        <v>161190</v>
+        <v>366930</v>
       </c>
       <c r="W21" s="0"/>
       <c r="X21" s="0"/>
@@ -21474,35 +21469,35 @@
       </c>
       <c r="M22" s="18" t="n">
         <f aca="false">ROUND(P21/$M$12,0)</f>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="N22" s="18" t="n">
         <f aca="false">L22+M22+N21</f>
-        <v>488</v>
+        <v>1087</v>
       </c>
       <c r="O22" s="20" t="n">
         <f aca="false">225*N22</f>
-        <v>109800</v>
+        <v>244575</v>
       </c>
       <c r="P22" s="20" t="n">
         <f aca="false">O22*$P$12</f>
-        <v>27450</v>
+        <v>48915</v>
       </c>
       <c r="Q22" s="20" t="n">
         <f aca="false">O22*$Q$12</f>
-        <v>16470</v>
+        <v>36686.25</v>
       </c>
       <c r="R22" s="19" t="n">
         <f aca="false">R21+Q22</f>
-        <v>62741.25</v>
+        <v>145023.75</v>
       </c>
       <c r="T22" s="20" t="n">
         <f aca="false">O22*12</f>
-        <v>1317600</v>
+        <v>2934900</v>
       </c>
       <c r="V22" s="20" t="n">
         <f aca="false">Q22*12</f>
-        <v>197640</v>
+        <v>440235</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21531,68 +21526,68 @@
         <f aca="false">H22+G23</f>
         <v>397</v>
       </c>
-      <c r="I23" s="12" t="n">
+      <c r="I23" s="11" t="n">
         <f aca="false">ROUND(H23*225*0.2,2)</f>
         <v>17865</v>
       </c>
-      <c r="J23" s="12" t="n">
+      <c r="J23" s="11" t="n">
         <f aca="false">J22+I23</f>
         <v>131782.5</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="21" t="n">
         <f aca="false">ROUND(D23*$G$10,0)</f>
         <v>0</v>
       </c>
       <c r="M23" s="21" t="n">
         <f aca="false">ROUND(P22/$M$12,0)</f>
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="N23" s="2" t="n">
         <f aca="false">L23+M23+N22</f>
-        <v>598</v>
-      </c>
-      <c r="O23" s="3" t="n">
+        <v>1304</v>
+      </c>
+      <c r="O23" s="12" t="n">
         <f aca="false">225*N23</f>
-        <v>134550</v>
+        <v>293400</v>
       </c>
       <c r="P23" s="22" t="n">
         <f aca="false">O23*$P$12</f>
-        <v>33637.5</v>
-      </c>
-      <c r="Q23" s="3" t="n">
+        <v>58680</v>
+      </c>
+      <c r="Q23" s="12" t="n">
         <f aca="false">O23*$Q$12</f>
-        <v>20182.5</v>
-      </c>
-      <c r="R23" s="12" t="n">
+        <v>44010</v>
+      </c>
+      <c r="R23" s="11" t="n">
         <f aca="false">R22+Q23</f>
-        <v>82923.75</v>
-      </c>
-      <c r="T23" s="3" t="n">
+        <v>189033.75</v>
+      </c>
+      <c r="T23" s="12" t="n">
         <f aca="false">O23*12</f>
-        <v>1614600</v>
-      </c>
-      <c r="V23" s="3" t="n">
+        <v>3520800</v>
+      </c>
+      <c r="V23" s="12" t="n">
         <f aca="false">Q23*12</f>
-        <v>242190</v>
+        <v>528120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L24" s="2" t="n">
         <f aca="false">SUM(L14:L23)</f>
-        <v>178</v>
+        <v>446</v>
       </c>
       <c r="M24" s="2" t="n">
         <f aca="false">SUM(M14:M23)</f>
-        <v>420</v>
-      </c>
-      <c r="N24" s="12" t="n">
+        <v>858</v>
+      </c>
+      <c r="N24" s="11" t="n">
         <f aca="false">N23</f>
-        <v>598</v>
-      </c>
-      <c r="P24" s="3" t="n">
+        <v>1304</v>
+      </c>
+      <c r="P24" s="12" t="n">
         <f aca="false">SUM(P14:P23)</f>
-        <v>138206.25</v>
+        <v>252045</v>
       </c>
     </row>
   </sheetData>
